--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -30,9 +30,6 @@
     <t>PIT</t>
   </si>
   <si>
-    <t>COMMENTS</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -126,20 +126,35 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -150,15 +165,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +182,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0099CC"/>
+      <color rgb="FF00CCFF"/>
+      <color rgb="FF00FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -441,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O71"/>
+  <dimension ref="A3:O71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,411 +483,399 @@
     <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="5"/>
-      <c r="D2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
-      <c r="D3" s="7"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="O3" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="C21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="C22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="C23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="C24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="C25" s="2"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="C26" s="2"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="C27" s="2"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="C28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="C29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="5"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="C30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="C31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="C32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="C33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="5"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="C34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="C35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="C36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="C37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="5"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="C38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="C39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="5"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="C40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="C41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="5"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="C42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="C43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="5"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="C44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="C45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="5"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="C46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="C47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="C48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="C49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="5"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="C50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="C51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="5"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="C52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="C53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="5"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="C54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="C55" s="2"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="5"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="C56" s="2"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="C57" s="2"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="5"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="C58" s="2"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="5"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="C59" s="2"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="5"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="C60" s="2"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="5"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="C61" s="2"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="5"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="C62" s="2"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="5"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="C63" s="2"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="5"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="C64" s="2"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="5"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="C65" s="2"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="5"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="C66" s="2"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="5"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="C67" s="2"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="5"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+      <c r="C68" s="2"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="5"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="C69" s="2"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="5"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="C70" s="2"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="5"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
+      <c r="C71" s="2"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -875,10 +885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A2:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,86 +904,79 @@
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>PIT</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Length (mm)</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
   </si>
 </sst>
 </file>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O71"/>
+  <dimension ref="A3:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,14 +482,15 @@
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -506,376 +513,450 @@
         <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
-      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
-      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
-      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
-      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
-      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
-      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
-      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
-      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
-      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
-      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
-      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
-      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
-      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
-      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
-      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
-      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
-      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
-      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
-      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
-      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
-      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
-      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
-      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
-      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
-      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
-      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
-      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
-      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
-      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
-      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
-      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
-      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
-      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
-      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
-      <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
-      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
-      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
-      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
-      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
-      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
-      <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
-      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
-      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
-      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
-      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
-      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
-      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
-      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
-      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
-      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
-      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
-      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
-      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
-      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
-      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
-      <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
-      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
-      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
-      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
-      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
-      <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
-      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
-      <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
-      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
-      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
-      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -885,10 +966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q5"/>
+  <dimension ref="A2:S71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,22 +977,21 @@
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -943,40 +1023,378 @@
         <v>16</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
@@ -24,8 +24,212 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units can be set to (cm) or (mm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units can be set to (kg) or (g)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stoyel, Quentin</author>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sample number, every row should be unique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. BSR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. Bonell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1999 BSR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units can be set to (cm) or (mm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units can be set to (kg) or (g)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>PIT</t>
   </si>
@@ -84,10 +288,7 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Length (mm)</t>
-  </si>
-  <si>
-    <t>Weight (kg)</t>
+    <t>Optional Columns</t>
   </si>
 </sst>
 </file>
@@ -97,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +332,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -146,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -163,13 +370,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -180,6 +427,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,29 +731,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="6.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -503,473 +779,403 @@
       <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="O3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
+      <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
+      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
+      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
+      <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
+      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
+      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
+      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
+      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
+      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
+      <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
+      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
+      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
+      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
+      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
+      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
+      <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
+      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
+      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
+      <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
+      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
+      <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
+      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
+      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
+      <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,21 +1183,30 @@
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1004,10 +1219,10 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1019,385 +1234,315 @@
       <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="Q3" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="12:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J2:Q2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
@@ -224,12 +224,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">UFID associated with a tissue sample, optional. 
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>PIT</t>
   </si>
@@ -289,6 +303,9 @@
   </si>
   <si>
     <t>Optional Columns</t>
+  </si>
+  <si>
+    <t>UFID</t>
   </si>
 </sst>
 </file>
@@ -298,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +354,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -427,6 +450,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,13 +466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -752,19 +775,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -779,7 +802,7 @@
       <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -809,7 +832,7 @@
       <c r="N3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1172,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q71"/>
+  <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,28 +1208,29 @@
     <col min="9" max="9" width="23.140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="14" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1234,7 +1258,7 @@
       <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -1250,70 +1274,73 @@
         <v>8</v>
       </c>
       <c r="O3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
@@ -1539,7 +1566,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="J2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
@@ -70,6 +70,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="E3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fill in if a movement occurred, or if origin tank is unknown.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H3" authorId="1" shapeId="0">
       <text>
         <r>
@@ -195,6 +221,32 @@
             <family val="2"/>
           </rPr>
           <t>Eg. 1999 BSR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fill in if a movement occurred, or if origin tank is unknown.</t>
         </r>
       </text>
     </comment>
@@ -439,7 +491,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -456,7 +508,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -757,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,19 +826,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -802,7 +853,7 @@
       <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1197,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,17 +1269,17 @@
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -122,6 +122,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="P3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter extra columns pick in application here. All additional columns are Y/N variety.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -295,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>PIT</t>
   </si>
@@ -358,6 +371,9 @@
   </si>
   <si>
     <t>UFID</t>
+  </si>
+  <si>
+    <t>ADDITIONAL COLUMNS</t>
   </si>
 </sst>
 </file>
@@ -491,7 +507,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -517,6 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O71"/>
+  <dimension ref="A2:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,9 +840,10 @@
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="14.140625" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
@@ -840,7 +858,7 @@
       <c r="N2" s="11"/>
       <c r="O2" s="12"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -886,75 +904,78 @@
       <c r="O3" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P3" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
@@ -289,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="P3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>PIT</t>
   </si>
@@ -524,6 +524,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,7 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,19 +844,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -904,7 +904,7 @@
       <c r="O3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1267,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R71"/>
+  <dimension ref="A2:S71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,29 +1280,31 @@
     <col min="9" max="9" width="23.140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1343,76 +1345,79 @@
         <v>4</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
@@ -1638,7 +1643,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="J2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
-    <sheet name="Group" sheetId="4" r:id="rId2"/>
+    <sheet name="Untagged" sheetId="4" r:id="rId2"/>
+    <sheet name="Group" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -307,8 +308,136 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. BSR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>eg. Bonell</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1999 BSR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fill in to record current container, or if movement occurred.  Leave blank if movement origin is unknown.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fill in if a movement occurred, or if origin tank is unknown.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Did the group get split, or did it move as a whole?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>PIT</t>
   </si>
@@ -374,6 +503,12 @@
   </si>
   <si>
     <t>ADDITIONAL COLUMNS</t>
+  </si>
+  <si>
+    <t>Number of Fish</t>
+  </si>
+  <si>
+    <t>Whole group (Y/N)</t>
   </si>
 </sst>
 </file>
@@ -507,7 +642,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -525,6 +660,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -844,19 +994,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1267,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S71"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,22 +1437,23 @@
     <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="13"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1649,4 +1800,71 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="9.140625" style="11"/>
+    <col min="6" max="6" width="13.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -297,7 +297,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">UFID associated with a tissue sample, optional. 
 </t>
@@ -432,12 +432,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="K3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optioanl, entry must match to Animal Detail Subjective Code in DB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optioanl, entry must match to Animal Detail Subjective Code in DB</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>PIT</t>
   </si>
@@ -509,6 +535,12 @@
   </si>
   <si>
     <t>Whole group (Y/N)</t>
+  </si>
+  <si>
+    <t>Vaccinated</t>
+  </si>
+  <si>
+    <t>Mark Applied</t>
   </si>
 </sst>
 </file>
@@ -518,7 +550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,12 +589,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1804,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K3"/>
+  <dimension ref="A2:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,16 +1844,17 @@
     <col min="8" max="8" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" style="11" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="11" max="12" width="18.140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1858,7 +1885,13 @@
       <c r="J3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>18</v>
       </c>
     </row>

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
@@ -123,7 +123,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="O3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optioanl, entry must match to Animal Detail Subjective Code in DB</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optioanl, entry must match to Animal Detail Subjective Code in DB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,6 +330,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="S3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optioanl, entry must match to Animal Detail Subjective Code in DB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optioanl, entry must match to Animal Detail Subjective Code in DB</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -463,7 +515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>PIT</t>
   </si>
@@ -999,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P71"/>
+  <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,13 +1065,17 @@
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
@@ -1032,9 +1088,11 @@
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1077,81 +1135,87 @@
       <c r="N3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1433,7 +1497,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="E2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1443,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,12 +1523,12 @@
     <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="20.140625" customWidth="1"/>
     <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="18" max="20" width="22.140625" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1479,9 +1543,11 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
-      <c r="S2" s="18"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1536,65 +1602,71 @@
       <c r="R3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
@@ -1820,7 +1892,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J2:S2"/>
+    <mergeCell ref="J2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1832,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -132,11 +132,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Release / Keep
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Optioanl, entry must match to Animal Detail Subjective Code in DB</t>
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>PIT</t>
   </si>
@@ -593,6 +607,9 @@
   </si>
   <si>
     <t>Mark Applied</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -1051,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R71"/>
+  <dimension ref="A2:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,14 +1085,14 @@
     <col min="11" max="11" width="21.42578125" customWidth="1"/>
     <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
@@ -1090,9 +1107,10 @@
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1135,87 +1153,90 @@
       <c r="N3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="Q3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1497,7 +1518,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="E2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
@@ -274,11 +274,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Group mark, optional. 
+Eg. Adipose Clip
+Must match code in DB.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Eg. 1999 BSR</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="L3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="M3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="U3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -455,11 +470,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Group mark, optional. 
+Eg. Adipose Clip
+Must match code in DB.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Eg. 1999 BSR</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1" shapeId="0">
+    <comment ref="H3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="1" shapeId="0">
+    <comment ref="I3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0">
+    <comment ref="K3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -498,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0">
+    <comment ref="L3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -511,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>PIT</t>
   </si>
@@ -610,6 +640,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -1528,35 +1561,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="20.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
-    <col min="18" max="20" width="22.140625" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
+    <col min="19" max="21" width="22.140625" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="J2" s="16" t="s">
+      <c r="G2" s="1"/>
+      <c r="K2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
@@ -1566,9 +1599,10 @@
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
-      <c r="U2" s="18"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="17"/>
+      <c r="V2" s="18"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1587,333 +1621,338 @@
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="U3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="K4" s="3"/>
+      <c r="G4" s="1"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="K5" s="3"/>
+      <c r="G5" s="1"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K6" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K7" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K8" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K9" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K10" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K11" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K12" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K13" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K14" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K15" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K16" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K17" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K18" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K19" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K20" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K21" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K22" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K23" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K24" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K25" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K26" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K27" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K28" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K29" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K30" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K31" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K32" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K33" s="3"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K34" s="3"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K35" s="3"/>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K36" s="3"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K37" s="3"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K38" s="3"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K39" s="3"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K40" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K41" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K42" s="3"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K43" s="3"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K44" s="3"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K45" s="3"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K46" s="3"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K47" s="3"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K48" s="3"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K49" s="3"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K50" s="3"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K51" s="3"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K52" s="3"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K53" s="3"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K54" s="3"/>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K55" s="3"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K56" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K57" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K58" s="3"/>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K59" s="3"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K60" s="3"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K61" s="3"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K62" s="3"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K63" s="3"/>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K64" s="3"/>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K65" s="3"/>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K66" s="3"/>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K67" s="3"/>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K68" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K69" s="3"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K70" s="3"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K71" s="3"/>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.25">
       <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J2:U2"/>
+    <mergeCell ref="K2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1923,31 +1962,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M3"/>
+  <dimension ref="A2:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="11"/>
-    <col min="6" max="6" width="13.5703125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="13.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.140625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1963,28 +2003,31 @@
       <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>18</v>
       </c>
     </row>

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
@@ -123,7 +123,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="K3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Use full name
+Eg. Fry/Parr/Smolt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="Q3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="R3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="T3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +359,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Use full name
+Eg. Fry/Parr/Smolt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="U3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0" shapeId="0">
+    <comment ref="V3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -515,7 +543,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0">
+    <comment ref="J3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Use full name
+Eg. Fry/Parr/Smolt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -541,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -559,7 +601,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>PIT</t>
   </si>
@@ -643,6 +685,9 @@
   </si>
   <si>
     <t>Mark</t>
+  </si>
+  <si>
+    <t>Lifestage</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S71"/>
+  <dimension ref="A2:T71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,17 +1160,18 @@
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="15" width="17.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="16" width="17.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
@@ -1141,9 +1187,10 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="17"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1175,101 +1222,104 @@
         <v>4</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="Q3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1551,7 +1601,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:R2"/>
+    <mergeCell ref="E2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1561,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,15 +1624,15 @@
     <col min="10" max="10" width="23.140625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.140625" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" customWidth="1"/>
-    <col min="19" max="21" width="22.140625" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="20" max="22" width="22.140625" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1600,9 +1650,10 @@
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="18"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1646,31 +1697,34 @@
         <v>4</v>
       </c>
       <c r="O3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1678,7 +1732,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1686,47 +1740,47 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
@@ -1952,7 +2006,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K2:V2"/>
+    <mergeCell ref="K2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1962,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N3"/>
+  <dimension ref="A2:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,20 +2028,20 @@
     <col min="7" max="7" width="13.5703125" style="11" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.140625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="11"/>
+    <col min="10" max="11" width="16.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.140625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -2015,19 +2069,22 @@
       <c r="I3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>18</v>
       </c>
     </row>

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -123,6 +123,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="J3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vial Number, Optional</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K3" authorId="1" shapeId="0">
       <text>
         <r>
@@ -134,6 +147,19 @@
           </rPr>
           <t>Use full name
 Eg. Fry/Parr/Smolt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Scale Envelope number, optional</t>
         </r>
       </text>
     </comment>
@@ -359,6 +385,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vial Number, Optional</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -382,8 +421,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">UFID associated with a tissue sample, optional. 
+          <t xml:space="preserve">UFID associated with a sample, optional. 
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Scale Envelope number, optional</t>
         </r>
       </text>
     </comment>
@@ -1149,7 +1201,7 @@
   <dimension ref="A2:T71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,6 +1676,7 @@
     <col min="10" max="10" width="23.140625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="20.140625" customWidth="1"/>
     <col min="19" max="19" width="16.28515625" customWidth="1"/>

--- a/bio_diversity/static/data_templates/measuring.xlsx
+++ b/bio_diversity/static/data_templates/measuring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA1045D-FC1C-4634-A2D8-27E341689A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3C2B66-EA6F-44F7-99CF-9C0874BF558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="3360" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="3" r:id="rId1"/>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:RU71"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2755,7 +2755,7 @@
   <dimension ref="A2:RU4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
